--- a/Tables/Metric Tables.xlsx
+++ b/Tables/Metric Tables.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemcmillan/Desktop/McMillan_R/Spatial_Comm_Comp_F21-S22/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADD5318-E5FE-DD4A-847F-2657A3AEA7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D25C73-5FA7-7A4A-8003-7BCEDFF5F612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
+    <workbookView xWindow="3300" yWindow="600" windowWidth="34300" windowHeight="17500" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="276">
   <si>
     <t>Category</t>
   </si>
@@ -856,13 +856,29 @@
   </si>
   <si>
     <t>Vanadium</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>Expected Response 
+to Disturbance</t>
+  </si>
+  <si>
+    <t>na (neg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -878,8 +894,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +917,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1067,26 +1101,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1099,6 +1128,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1414,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E767B9D-A66F-9045-A4EC-3FCC4778B263}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D61" sqref="A1:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,45 +1472,31 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="76.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="D1" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1472,420 +1505,478 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="D2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="D3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="14" t="s">
-        <v>230</v>
-      </c>
+      <c r="D4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="33"/>
       <c r="K4" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+        <v>229</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="14" t="s">
-        <v>231</v>
-      </c>
+      <c r="D5" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="33"/>
       <c r="K5" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+        <v>230</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14" t="s">
-        <v>232</v>
-      </c>
+      <c r="D6" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="33"/>
       <c r="K6" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+        <v>231</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="14" t="s">
-        <v>233</v>
-      </c>
+      <c r="D7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="33"/>
       <c r="K7" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+        <v>232</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="14" t="s">
-        <v>234</v>
-      </c>
+      <c r="D8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="33"/>
       <c r="K8" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+        <v>233</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="14" t="s">
-        <v>235</v>
-      </c>
+      <c r="D9" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="33"/>
       <c r="K9" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="28"/>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="14" t="s">
-        <v>236</v>
-      </c>
+      <c r="D10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="33"/>
       <c r="K10" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+        <v>235</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="14" t="s">
-        <v>237</v>
-      </c>
+      <c r="D11" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" s="33"/>
       <c r="K11" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+        <v>236</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="28"/>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="14" t="s">
-        <v>238</v>
-      </c>
+      <c r="D12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" s="33"/>
       <c r="K12" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+        <v>237</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="14" t="s">
-        <v>239</v>
-      </c>
+      <c r="D13" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" s="33"/>
       <c r="K13" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+        <v>238</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="14" t="s">
-        <v>240</v>
-      </c>
+      <c r="D14" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="33"/>
       <c r="K14" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+        <v>239</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="14" t="s">
-        <v>241</v>
-      </c>
+      <c r="D15" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="33"/>
       <c r="K15" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+        <v>240</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="14" t="s">
-        <v>270</v>
-      </c>
+      <c r="D16" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="33"/>
       <c r="K16" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+        <v>241</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="14" t="s">
-        <v>242</v>
-      </c>
+      <c r="D17" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="33"/>
       <c r="K17" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+        <v>270</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="14" t="s">
-        <v>243</v>
-      </c>
+      <c r="D18" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="33"/>
       <c r="K18" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
+        <v>242</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="14" t="s">
-        <v>269</v>
-      </c>
+      <c r="D19" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" s="33"/>
       <c r="K19" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1894,232 +1985,262 @@
       <c r="C20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="14" t="s">
-        <v>244</v>
-      </c>
+      <c r="D20" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="33"/>
       <c r="K20" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+        <v>269</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="14" t="s">
-        <v>245</v>
-      </c>
+      <c r="D21" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" s="33"/>
       <c r="K21" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+        <v>244</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="14" t="s">
-        <v>246</v>
-      </c>
+      <c r="D22" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="33"/>
       <c r="K22" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
+        <v>245</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="14" t="s">
-        <v>247</v>
-      </c>
+      <c r="D23" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="33"/>
       <c r="K23" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
+        <v>246</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
       <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="14" t="s">
-        <v>268</v>
-      </c>
+      <c r="D24" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="33"/>
       <c r="K24" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
+        <v>247</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
       <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="14" t="s">
-        <v>248</v>
-      </c>
+      <c r="D25" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="33"/>
       <c r="K25" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
+        <v>268</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="14" t="s">
-        <v>267</v>
-      </c>
+      <c r="D26" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="33"/>
       <c r="K26" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
+        <v>248</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
       <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="29"/>
+      <c r="D27" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="28"/>
       <c r="B28" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="D28" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="34"/>
+      <c r="K28" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
       <c r="B29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="D29" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -2128,210 +2249,256 @@
       <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="D30" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="33"/>
+      <c r="K30" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="31"/>
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="D31" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="31"/>
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+      <c r="D32" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
+      <c r="D33" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" s="33"/>
+      <c r="K33" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="D34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" s="33"/>
+      <c r="K34" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
       <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="D35" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="31"/>
       <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
+      <c r="D36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="D37" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J37" s="34"/>
+      <c r="K37" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="31"/>
       <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
+      <c r="D38" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
       <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
+      <c r="D39" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" s="33"/>
+      <c r="K39" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
+      <c r="D40" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J40" s="33"/>
+      <c r="K40" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="31"/>
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+      <c r="D41" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="26"/>
       <c r="B42" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="27" t="s">
+      <c r="D42" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2340,100 +2507,137 @@
       <c r="C43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
+      <c r="D43" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="31"/>
       <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="19"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
+      <c r="D44" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J44" s="34"/>
+      <c r="K44" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="31"/>
       <c r="B45" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
+      <c r="D45" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
       <c r="B46" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
+      <c r="D46" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="31"/>
       <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
+      <c r="D47" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="31"/>
       <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
+      <c r="D48" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
       <c r="B49" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
+      <c r="D49" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="31"/>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="32"/>
+      <c r="D50" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="31"/>
       <c r="B51" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
+      <c r="D51" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="26"/>
       <c r="B52" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
+      <c r="D52" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2442,36 +2646,49 @@
       <c r="C53" s="5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
+      <c r="D53" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="31"/>
       <c r="B54" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
+      <c r="D54" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="31"/>
       <c r="B55" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
+      <c r="D55" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
       <c r="B56" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="27" t="s">
+      <c r="D56" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2480,27 +2697,36 @@
       <c r="C57" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
+      <c r="D57" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="31"/>
       <c r="B58" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
+      <c r="D58" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="26"/>
       <c r="B59" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="27" t="s">
+      <c r="D59" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
         <v>121</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2509,18 +2735,29 @@
       <c r="C60" s="5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+      <c r="D60" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
       <c r="B61" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>125</v>
       </c>
+      <c r="D61" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J3:J28"/>
+    <mergeCell ref="J29:J37"/>
+    <mergeCell ref="J38:J44"/>
+    <mergeCell ref="F15:F30"/>
+    <mergeCell ref="F3:F14"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A20:A29"/>
@@ -2528,11 +2765,6 @@
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="A53:A56"/>
     <mergeCell ref="A57:A59"/>
-    <mergeCell ref="I2:I27"/>
-    <mergeCell ref="I28:I36"/>
-    <mergeCell ref="I37:I43"/>
-    <mergeCell ref="E14:E29"/>
-    <mergeCell ref="E2:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/Metric Tables.xlsx
+++ b/Tables/Metric Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemcmillan/Desktop/McMillan_R/Spatial_Comm_Comp_F21-S22/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D25C73-5FA7-7A4A-8003-7BCEDFF5F612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777798F-3965-4E48-864F-A8F9542B35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="600" windowWidth="34300" windowHeight="17500" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
+    <workbookView xWindow="4100" yWindow="700" windowWidth="34300" windowHeight="17500" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="274">
   <si>
     <t>Category</t>
   </si>
@@ -45,10 +45,6 @@
   </si>
   <si>
     <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>Community 
-Composition</t>
   </si>
   <si>
     <t>% Chironomidae</t>
@@ -260,9 +256,6 @@
   </si>
   <si>
     <t>pSH</t>
-  </si>
-  <si>
-    <t>Collector Taxa</t>
   </si>
   <si>
     <t>rich.C</t>
@@ -858,27 +851,28 @@
     <t>Vanadium</t>
   </si>
   <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
     <t>Expected Response 
 to Disturbance</t>
   </si>
   <si>
-    <t>na (neg)</t>
+    <t>Coleoptera Taxa</t>
+  </si>
+  <si>
+    <t>Community 
+Com+ition</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -896,14 +890,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -1062,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1104,30 +1091,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,14 +1104,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,7 +1475,7 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="76.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" style="40" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -1491,22 +1494,22 @@
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>274</v>
+      <c r="D1" s="24" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>271</v>
+      <c r="D2" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1524,1247 +1527,1247 @@
         <v>1</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="25" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="K3" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J3" s="32" t="s">
+      <c r="H8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="32"/>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="32"/>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="33"/>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
+      <c r="B21" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
+      <c r="B22" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
+      <c r="B23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
+      <c r="B24" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J24" s="26"/>
+      <c r="K24" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
+      <c r="B25" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="26"/>
+      <c r="K26" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="26"/>
+      <c r="K27" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" s="26"/>
+      <c r="K35" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J36" s="26"/>
+      <c r="K36" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="32"/>
+      <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="J37" s="27"/>
+      <c r="K37" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="32"/>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="32"/>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" s="26"/>
+      <c r="K39" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="32"/>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" s="26"/>
+      <c r="K40" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="32"/>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J41" s="26"/>
+      <c r="K41" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="L41" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="33"/>
+      <c r="B42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="J42" s="26"/>
+      <c r="K42" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="33"/>
-      <c r="K18" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="L24" s="14" t="s">
+      <c r="J43" s="26"/>
+      <c r="K43" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="L43" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
-      <c r="B29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30" s="33"/>
-      <c r="K30" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="3" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="34"/>
+      <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J44" s="27"/>
+      <c r="K44" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="34"/>
+      <c r="B45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J33" s="33"/>
-      <c r="K33" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J34" s="33"/>
-      <c r="K34" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
-      <c r="B36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J39" s="33"/>
-      <c r="K39" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J40" s="33"/>
-      <c r="K40" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="J43" s="33"/>
-      <c r="K43" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="31"/>
-      <c r="B44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="31"/>
-      <c r="B45" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>272</v>
+      <c r="D45" s="39" t="s">
+        <v>273</v>
       </c>
       <c r="J45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="19"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>275</v>
+      <c r="D46" s="37" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="34"/>
+      <c r="B48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D48" s="39" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="34"/>
+      <c r="B49" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D49" s="37" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="2" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="34"/>
+      <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="34"/>
+      <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="31"/>
+      <c r="B52" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="6" t="s">
+      <c r="D52" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="B53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
+      <c r="C53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="D53" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="34"/>
+      <c r="B54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="37" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="2" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="34"/>
+      <c r="B55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="31"/>
+      <c r="B56" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="B56" s="6" t="s">
+      <c r="D56" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="B57" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="C57" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="D57" s="36" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="34"/>
+      <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="31"/>
+      <c r="B59" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D59" s="38" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
-      <c r="B59" s="6" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="B60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="C60" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="D60" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="31"/>
+      <c r="B61" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="B61" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>272</v>
+      <c r="D61" s="38" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A43:A52"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A20:A30"/>
+    <mergeCell ref="A31:A42"/>
     <mergeCell ref="J3:J28"/>
     <mergeCell ref="J29:J37"/>
     <mergeCell ref="J38:J44"/>
     <mergeCell ref="F15:F30"/>
     <mergeCell ref="F3:F14"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A29"/>
-    <mergeCell ref="A30:A42"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/Metric Tables.xlsx
+++ b/Tables/Metric Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemcmillan/Desktop/McMillan_R/Spatial_Comm_Comp_F21-S22/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777798F-3965-4E48-864F-A8F9542B35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDBAF9A-40E8-F846-88B7-E41BE793B217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="700" windowWidth="34300" windowHeight="17500" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
+    <workbookView xWindow="2720" yWindow="1380" windowWidth="34300" windowHeight="17500" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="280">
   <si>
     <t>Category</t>
   </si>
@@ -65,9 +65,6 @@
     <t>pD</t>
   </si>
   <si>
-    <t>% Ephemeroptera</t>
-  </si>
-  <si>
     <t>pE</t>
   </si>
   <si>
@@ -170,13 +167,7 @@
     <t>rich.E</t>
   </si>
   <si>
-    <t>Ephemeroptera Taxa less Baetidae</t>
-  </si>
-  <si>
     <t>rich.E.less.B</t>
-  </si>
-  <si>
-    <t>Ephemeropter, Plecoptera, and Trichoptera Taxa</t>
   </si>
   <si>
     <t>rich.EPT</t>
@@ -222,9 +213,6 @@
 Feeding Group </t>
   </si>
   <si>
-    <t>%  Collector-Filterers</t>
-  </si>
-  <si>
     <t>pCF</t>
   </si>
   <si>
@@ -279,9 +267,6 @@
     <t>rich.PR</t>
   </si>
   <si>
-    <t>Scraper Taxa</t>
-  </si>
-  <si>
     <t>rich.SC</t>
   </si>
   <si>
@@ -330,9 +315,6 @@
     <t>rich.Burrow</t>
   </si>
   <si>
-    <t>Clinger Taxa</t>
-  </si>
-  <si>
     <t>rich.Cling</t>
   </si>
   <si>
@@ -367,9 +349,6 @@
   </si>
   <si>
     <t>p2dom</t>
-  </si>
-  <si>
-    <t>% 5 Dominant Taxa</t>
   </si>
   <si>
     <t>p5dom</t>
@@ -866,13 +845,52 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>VA Stream Condition Index Score</t>
+  </si>
+  <si>
+    <t>VASCI</t>
+  </si>
+  <si>
+    <t>*% Ephemeroptera</t>
+  </si>
+  <si>
+    <t>*Ephemeroptera Taxa less Baetidae</t>
+  </si>
+  <si>
+    <t>*Ephemeroptera, Plecoptera, and Trichoptera Taxa</t>
+  </si>
+  <si>
+    <t>*Scraper Taxa</t>
+  </si>
+  <si>
+    <t>% Collector-Filterers</t>
+  </si>
+  <si>
+    <t>*Clinger Taxa</t>
+  </si>
+  <si>
+    <t>*% 5 Dominant Taxa</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>Total Taxa</t>
+  </si>
+  <si>
+    <t>Hilsenhoff Biotic Index</t>
+  </si>
+  <si>
+    <t>HBI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -889,6 +907,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -1049,7 +1083,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1095,6 +1129,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,50 +1165,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1464,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E767B9D-A66F-9045-A4EC-3FCC4778B263}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D61" sqref="A1:D61"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection sqref="A1:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1475,7 +1514,7 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="76.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="19" style="40" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -1495,21 +1534,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>272</v>
+      <c r="D2" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1527,1247 +1566,1289 @@
         <v>1</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>202</v>
+      <c r="D3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>195</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>194</v>
+        <v>117</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="35"/>
+      <c r="K4" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+      <c r="B5" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="35"/>
+      <c r="K7" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="35"/>
+      <c r="K9" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="35"/>
+      <c r="K12" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="35"/>
+      <c r="K19" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="37"/>
+      <c r="G23" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" s="35"/>
+      <c r="K24" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" s="35"/>
+      <c r="K25" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="31"/>
+      <c r="B29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="31"/>
+      <c r="B30" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="31"/>
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="31"/>
+      <c r="B34" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" s="35"/>
+      <c r="K34" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="31"/>
+      <c r="B35" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J35" s="35"/>
+      <c r="K35" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="31"/>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="31"/>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="L37" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="31"/>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="31"/>
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="31"/>
+      <c r="B40" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J40" s="35"/>
+      <c r="K40" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L40" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="31"/>
+      <c r="B41" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="32"/>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="14" t="s">
+      <c r="C41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" s="35"/>
+      <c r="K41" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="31"/>
+      <c r="B42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" s="35"/>
+      <c r="K42" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="32"/>
+      <c r="B43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J43" s="35"/>
+      <c r="K43" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" s="35"/>
+      <c r="K44" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="33"/>
+      <c r="B45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="J45" s="36"/>
+      <c r="K45" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="33"/>
+      <c r="B48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+      <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="33"/>
+      <c r="B51" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="33"/>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="29"/>
+      <c r="B53" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="33"/>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="33"/>
+      <c r="B56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="29"/>
+      <c r="B57" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="33"/>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="33"/>
+      <c r="B60" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="33"/>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="14" t="s">
+      <c r="D60" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="29"/>
+      <c r="B61" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="J33" s="26"/>
-      <c r="K33" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="J34" s="26"/>
-      <c r="K34" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="J35" s="26"/>
-      <c r="K35" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="L35" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="J36" s="26"/>
-      <c r="K36" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="J37" s="27"/>
-      <c r="K37" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="J39" s="26"/>
-      <c r="K39" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="J40" s="26"/>
-      <c r="K40" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="J41" s="26"/>
-      <c r="K41" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="33"/>
-      <c r="B42" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="J42" s="26"/>
-      <c r="K42" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="J43" s="26"/>
-      <c r="K43" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="19"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="34"/>
-      <c r="B46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="34"/>
-      <c r="B50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="34"/>
-      <c r="B51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="G56" s="23"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="30" t="s">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B62" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C62" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="36" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="2" t="s">
+      <c r="D62" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="29"/>
+      <c r="B64" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C64" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
-      <c r="B59" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
-      <c r="B61" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>273</v>
+      <c r="D64" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="J3:J29"/>
+    <mergeCell ref="J30:J38"/>
+    <mergeCell ref="J39:J45"/>
+    <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="A62:A64"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A20:A30"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="J3:J28"/>
-    <mergeCell ref="J29:J37"/>
-    <mergeCell ref="J38:J44"/>
-    <mergeCell ref="F15:F30"/>
-    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A21:A31"/>
+    <mergeCell ref="A32:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/Metric Tables.xlsx
+++ b/Tables/Metric Tables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemcmillan/Desktop/McMillan_R/Spatial_Comm_Comp_F21-S22/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDBAF9A-40E8-F846-88B7-E41BE793B217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF01B4-368E-BC4C-88C5-3E07E1909032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1380" windowWidth="34300" windowHeight="17500" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="279">
   <si>
     <t>Category</t>
   </si>
@@ -837,53 +838,50 @@
     <t>Coleoptera Taxa</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>VA Stream Condition Index Score</t>
+  </si>
+  <si>
+    <t>VASCI</t>
+  </si>
+  <si>
+    <t>*% Ephemeroptera</t>
+  </si>
+  <si>
+    <t>*Ephemeroptera Taxa less Baetidae</t>
+  </si>
+  <si>
+    <t>*Ephemeroptera, Plecoptera, and Trichoptera Taxa</t>
+  </si>
+  <si>
+    <t>*Scraper Taxa</t>
+  </si>
+  <si>
+    <t>% Collector-Filterers</t>
+  </si>
+  <si>
+    <t>*Clinger Taxa</t>
+  </si>
+  <si>
+    <t>*% 5 Dominant Taxa</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>Total Taxa</t>
+  </si>
+  <si>
     <t>Community 
-Com+ition</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>VA Stream Condition Index Score</t>
-  </si>
-  <si>
-    <t>VASCI</t>
-  </si>
-  <si>
-    <t>*% Ephemeroptera</t>
-  </si>
-  <si>
-    <t>*Ephemeroptera Taxa less Baetidae</t>
-  </si>
-  <si>
-    <t>*Ephemeroptera, Plecoptera, and Trichoptera Taxa</t>
-  </si>
-  <si>
-    <t>*Scraper Taxa</t>
-  </si>
-  <si>
-    <t>% Collector-Filterers</t>
-  </si>
-  <si>
-    <t>*Clinger Taxa</t>
-  </si>
-  <si>
-    <t>*% 5 Dominant Taxa</t>
-  </si>
-  <si>
-    <t>rich</t>
-  </si>
-  <si>
-    <t>Total Taxa</t>
-  </si>
-  <si>
-    <t>Hilsenhoff Biotic Index</t>
-  </si>
-  <si>
-    <t>HBI</t>
+Composition</t>
+  </si>
+  <si>
+    <t>Response</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1138,36 +1136,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1180,14 +1148,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1503,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E767B9D-A66F-9045-A4EC-3FCC4778B263}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection sqref="A1:D64"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,17 +1530,17 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1570,7 +1562,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1578,9 +1570,9 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>195</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -1600,7 +1592,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1608,9 +1600,9 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="37"/>
+        <v>264</v>
+      </c>
+      <c r="F4" s="38"/>
       <c r="G4" s="9" t="s">
         <v>193</v>
       </c>
@@ -1626,17 +1618,17 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="38" t="s">
-        <v>269</v>
+      <c r="A5" s="39"/>
+      <c r="B5" s="28" t="s">
+        <v>268</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F5" s="38"/>
       <c r="G5" s="9" t="s">
         <v>192</v>
       </c>
@@ -1652,17 +1644,17 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="38" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F6" s="38"/>
       <c r="G6" s="9" t="s">
         <v>194</v>
       </c>
@@ -1678,7 +1670,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1686,9 +1678,9 @@
         <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F7" s="38"/>
       <c r="G7" s="9" t="s">
         <v>196</v>
       </c>
@@ -1704,7 +1696,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1712,9 +1704,9 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F8" s="38"/>
       <c r="G8" s="9" t="s">
         <v>197</v>
       </c>
@@ -1730,7 +1722,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1738,9 +1730,9 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F9" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F9" s="38"/>
       <c r="G9" s="9" t="s">
         <v>198</v>
       </c>
@@ -1756,7 +1748,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1764,9 +1756,9 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F10" s="38"/>
       <c r="G10" s="9" t="s">
         <v>199</v>
       </c>
@@ -1782,7 +1774,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1790,9 +1782,9 @@
         <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="37"/>
+        <v>264</v>
+      </c>
+      <c r="F11" s="38"/>
       <c r="G11" s="9" t="s">
         <v>200</v>
       </c>
@@ -1808,7 +1800,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1816,9 +1808,9 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F12" s="38"/>
       <c r="G12" s="9" t="s">
         <v>201</v>
       </c>
@@ -1834,7 +1826,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1842,9 +1834,9 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F13" s="38"/>
       <c r="G13" s="9" t="s">
         <v>202</v>
       </c>
@@ -1860,7 +1852,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1868,9 +1860,9 @@
         <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F14" s="38"/>
       <c r="G14" s="10" t="s">
         <v>203</v>
       </c>
@@ -1886,7 +1878,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1894,9 +1886,9 @@
         <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="38" t="s">
         <v>186</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -1914,7 +1906,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1922,9 +1914,9 @@
         <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F16" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F16" s="38"/>
       <c r="G16" s="11" t="s">
         <v>205</v>
       </c>
@@ -1940,17 +1932,17 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F17" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="11" t="s">
         <v>206</v>
       </c>
@@ -1966,7 +1958,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1974,9 +1966,9 @@
         <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F18" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F18" s="38"/>
       <c r="G18" s="11" t="s">
         <v>207</v>
       </c>
@@ -1992,7 +1984,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2000,9 +1992,9 @@
         <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F19" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F19" s="38"/>
       <c r="G19" s="11" t="s">
         <v>208</v>
       </c>
@@ -2018,17 +2010,19 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43" t="s">
-        <v>277</v>
+      <c r="A20" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>276</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F20" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F20" s="38"/>
       <c r="G20" s="11"/>
       <c r="H20" s="3"/>
       <c r="J20" s="35"/>
@@ -2036,19 +2030,17 @@
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>38</v>
-      </c>
+      <c r="A21" s="39"/>
       <c r="B21" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F21" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F21" s="38"/>
       <c r="G21" s="11" t="s">
         <v>209</v>
       </c>
@@ -2064,7 +2056,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="26" t="s">
         <v>39</v>
       </c>
@@ -2072,9 +2064,9 @@
         <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F22" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F22" s="38"/>
       <c r="G22" s="11" t="s">
         <v>210</v>
       </c>
@@ -2090,17 +2082,17 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="29" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F23" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F23" s="38"/>
       <c r="G23" s="11" t="s">
         <v>211</v>
       </c>
@@ -2116,17 +2108,17 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="39" t="s">
-        <v>270</v>
+      <c r="A24" s="39"/>
+      <c r="B24" s="29" t="s">
+        <v>269</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F24" s="38"/>
       <c r="G24" s="11" t="s">
         <v>212</v>
       </c>
@@ -2142,17 +2134,17 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="39" t="s">
-        <v>271</v>
+      <c r="A25" s="39"/>
+      <c r="B25" s="29" t="s">
+        <v>270</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F25" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F25" s="38"/>
       <c r="G25" s="11" t="s">
         <v>213</v>
       </c>
@@ -2168,7 +2160,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="26" t="s">
         <v>45</v>
       </c>
@@ -2176,9 +2168,9 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F26" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F26" s="38"/>
       <c r="G26" s="11" t="s">
         <v>214</v>
       </c>
@@ -2194,7 +2186,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="26" t="s">
         <v>47</v>
       </c>
@@ -2202,9 +2194,9 @@
         <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F27" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F27" s="38"/>
       <c r="G27" s="11" t="s">
         <v>215</v>
       </c>
@@ -2220,7 +2212,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="26" t="s">
         <v>49</v>
       </c>
@@ -2228,9 +2220,9 @@
         <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F28" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F28" s="38"/>
       <c r="G28" s="11" t="s">
         <v>216</v>
       </c>
@@ -2246,7 +2238,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="26" t="s">
         <v>51</v>
       </c>
@@ -2254,9 +2246,9 @@
         <v>52</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F29" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F29" s="38"/>
       <c r="G29" s="11" t="s">
         <v>217</v>
       </c>
@@ -2272,7 +2264,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="26" t="s">
         <v>53</v>
       </c>
@@ -2280,9 +2272,9 @@
         <v>54</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F30" s="38"/>
       <c r="G30" s="11" t="s">
         <v>218</v>
       </c>
@@ -2300,7 +2292,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="27" t="s">
         <v>55</v>
       </c>
@@ -2308,9 +2300,9 @@
         <v>56</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="37"/>
+        <v>265</v>
+      </c>
+      <c r="F31" s="38"/>
       <c r="G31" s="12" t="s">
         <v>219</v>
       </c>
@@ -2326,17 +2318,17 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J32" s="35"/>
       <c r="K32" s="17" t="s">
@@ -2347,7 +2339,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
@@ -2355,7 +2347,7 @@
         <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J33" s="35"/>
       <c r="K33" s="17" t="s">
@@ -2366,15 +2358,15 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J34" s="35"/>
       <c r="K34" s="17" t="s">
@@ -2385,15 +2377,15 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="28" t="s">
         <v>63</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="17" t="s">
@@ -2404,7 +2396,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
@@ -2412,7 +2404,7 @@
         <v>66</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J36" s="35"/>
       <c r="K36" s="17" t="s">
@@ -2423,7 +2415,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
@@ -2431,7 +2423,7 @@
         <v>68</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J37" s="35"/>
       <c r="K37" s="17" t="s">
@@ -2442,7 +2434,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="2" t="s">
         <v>70</v>
       </c>
@@ -2450,7 +2442,7 @@
         <v>71</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J38" s="36"/>
       <c r="K38" s="20" t="s">
@@ -2461,7 +2453,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
+      <c r="A39" s="39"/>
       <c r="B39" s="2" t="s">
         <v>72</v>
       </c>
@@ -2469,9 +2461,9 @@
         <v>73</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J39" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" s="37" t="s">
         <v>190</v>
       </c>
       <c r="K39" s="16" t="s">
@@ -2482,15 +2474,15 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J40" s="35"/>
       <c r="K40" s="17" t="s">
@@ -2501,15 +2493,15 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="38" t="s">
-        <v>272</v>
+      <c r="A41" s="39"/>
+      <c r="B41" s="28" t="s">
+        <v>271</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J41" s="35"/>
       <c r="K41" s="17" t="s">
@@ -2520,7 +2512,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="31"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
@@ -2528,7 +2520,7 @@
         <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J42" s="35"/>
       <c r="K42" s="17" t="s">
@@ -2539,7 +2531,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="6" t="s">
         <v>79</v>
       </c>
@@ -2547,7 +2539,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J43" s="35"/>
       <c r="K43" s="17" t="s">
@@ -2558,7 +2550,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="34" t="s">
         <v>81</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2568,7 +2560,7 @@
         <v>83</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J44" s="35"/>
       <c r="K44" s="17" t="s">
@@ -2579,7 +2571,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
@@ -2587,7 +2579,7 @@
         <v>85</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J45" s="36"/>
       <c r="K45" s="20" t="s">
@@ -2598,258 +2590,728 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="38" t="s">
-        <v>63</v>
+      <c r="A46" s="35"/>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="19"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="33"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="2" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="35"/>
+      <c r="B51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="35"/>
+      <c r="B53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="35"/>
+      <c r="B54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="36"/>
+      <c r="B55" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="35"/>
+      <c r="B57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="35"/>
+      <c r="B58" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="33"/>
-      <c r="B48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="33"/>
-      <c r="B49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="33"/>
-      <c r="B50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="33"/>
-      <c r="B51" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="33"/>
-      <c r="B52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="33"/>
-      <c r="B55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="33"/>
-      <c r="B56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G57" s="23"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="33"/>
-      <c r="B59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>266</v>
+      <c r="A59" s="35"/>
+      <c r="B59" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="33"/>
-      <c r="B60" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>266</v>
+      <c r="A60" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="29"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="33"/>
-      <c r="B63" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="29"/>
-      <c r="B64" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A59"/>
     <mergeCell ref="J3:J29"/>
     <mergeCell ref="J30:J38"/>
     <mergeCell ref="J39:J45"/>
     <mergeCell ref="F15:F31"/>
     <mergeCell ref="F3:F14"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A21:A31"/>
-    <mergeCell ref="A32:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C151572-0A0D-1B47-AF42-C6B04BB5D9B0}">
+  <dimension ref="A1:B61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
+    <sortCondition ref="A1:A61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/Metric Tables.xlsx
+++ b/Tables/Metric Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemcmillan/Desktop/McMillan_R/Spatial_Comm_Comp_F21-S22/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DF01B4-368E-BC4C-88C5-3E07E1909032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F11D37-114D-DF4A-8FAF-7E049E4C5013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
+    <workbookView xWindow="0" yWindow="3180" windowWidth="28800" windowHeight="16180" xr2:uid="{5C1C0B64-3A4A-2E4A-909E-5409FF69BBDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="280">
   <si>
     <t>Category</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>pE</t>
-  </si>
-  <si>
-    <t>%Ephemeroptera less Baetidae</t>
   </si>
   <si>
     <t>pE.less.B</t>
@@ -600,9 +597,6 @@
   <si>
     <t>Sediment Size 
 Distribution</t>
-  </si>
-  <si>
-    <t>Metals</t>
   </si>
   <si>
     <t>Nutrients</t>
@@ -789,9 +783,6 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
-    <t xml:space="preserve">Nitrate  </t>
-  </si>
-  <si>
     <t>Specific Conductance</t>
   </si>
   <si>
@@ -829,10 +820,6 @@
   </si>
   <si>
     <t>Vanadium</t>
-  </si>
-  <si>
-    <t>Expected Response 
-to Disturbance</t>
   </si>
   <si>
     <t>Coleoptera Taxa</t>
@@ -882,13 +869,54 @@
   </si>
   <si>
     <t>Response</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Trace
+Elements</t>
+  </si>
+  <si>
+    <t>% Ephemeroptera less Baetidae</t>
+  </si>
+  <si>
+    <r>
+      <t>Metric</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Expected Response
+to Disturbance</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -921,6 +949,13 @@
     <font>
       <b/>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
@@ -1154,10 +1189,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,20 +1204,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1497,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E767B9D-A66F-9045-A4EC-3FCC4778B263}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D61"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection sqref="A1:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,18 +1555,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>277</v>
+      <c r="A2" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>3</v>
@@ -1540,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -1558,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1570,25 +1605,25 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>195</v>
+        <v>260</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>193</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>187</v>
+        <v>116</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1600,456 +1635,460 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="38"/>
+        <v>260</v>
+      </c>
+      <c r="F4" s="42"/>
       <c r="G4" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" s="35"/>
+        <v>117</v>
+      </c>
+      <c r="J4" s="41"/>
       <c r="K4" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="39"/>
       <c r="B5" s="28" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F5" s="42"/>
       <c r="G5" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="J5" s="35"/>
+        <v>118</v>
+      </c>
+      <c r="J5" s="41"/>
       <c r="K5" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
       <c r="B6" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F6" s="42"/>
       <c r="G6" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="35"/>
+        <v>119</v>
+      </c>
+      <c r="J6" s="41"/>
       <c r="K6" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F7" s="42"/>
       <c r="G7" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="J7" s="41"/>
       <c r="K7" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="39"/>
       <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F8" s="42"/>
       <c r="G8" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="35"/>
+        <v>121</v>
+      </c>
+      <c r="J8" s="41"/>
       <c r="K8" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="39"/>
       <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F9" s="42"/>
       <c r="G9" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="35"/>
+        <v>122</v>
+      </c>
+      <c r="J9" s="41"/>
       <c r="K9" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="39"/>
       <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F10" s="42"/>
       <c r="G10" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J10" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="J10" s="41"/>
       <c r="K10" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="39"/>
       <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F11" s="38"/>
+        <v>260</v>
+      </c>
+      <c r="F11" s="42"/>
       <c r="G11" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="35"/>
+        <v>124</v>
+      </c>
+      <c r="J11" s="41"/>
       <c r="K11" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="39"/>
       <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F12" s="42"/>
       <c r="G12" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="35"/>
+        <v>125</v>
+      </c>
+      <c r="J12" s="41"/>
       <c r="K12" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
       <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F13" s="42"/>
       <c r="G13" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="J13" s="41"/>
       <c r="K13" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
       <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F14" s="42"/>
       <c r="G14" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="35"/>
+        <v>137</v>
+      </c>
+      <c r="J14" s="41"/>
       <c r="K14" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
       <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>186</v>
+        <v>261</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>185</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="35"/>
+        <v>127</v>
+      </c>
+      <c r="J15" s="41"/>
       <c r="K15" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F16" s="42"/>
       <c r="G16" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="J16" s="41"/>
       <c r="K16" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
       <c r="B17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F17" s="42"/>
       <c r="G17" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J17" s="35"/>
+        <v>129</v>
+      </c>
+      <c r="J17" s="41"/>
       <c r="K17" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="39"/>
       <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F18" s="42"/>
       <c r="G18" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="J18" s="41"/>
       <c r="K18" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>38</v>
-      </c>
       <c r="B20" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F20" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F20" s="42"/>
       <c r="G20" s="11"/>
       <c r="H20" s="3"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="39"/>
       <c r="B21" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F21" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F21" s="42"/>
       <c r="G21" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="J21" s="41"/>
       <c r="K21" s="14" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>169</v>
@@ -2058,24 +2097,24 @@
     <row r="22" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="39"/>
       <c r="B22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F22" s="42"/>
       <c r="G22" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J22" s="35"/>
+        <v>133</v>
+      </c>
+      <c r="J22" s="41"/>
       <c r="K22" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>170</v>
@@ -2084,24 +2123,24 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F23" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F23" s="42"/>
       <c r="G23" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="35"/>
+        <v>134</v>
+      </c>
+      <c r="J23" s="41"/>
       <c r="K23" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>171</v>
@@ -2110,24 +2149,24 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="39"/>
       <c r="B24" s="29" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F24" s="42"/>
       <c r="G24" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="35"/>
+        <v>115</v>
+      </c>
+      <c r="J24" s="41"/>
       <c r="K24" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>172</v>
@@ -2136,76 +2175,76 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="39"/>
       <c r="B25" s="29" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F25" s="42"/>
       <c r="G25" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="35"/>
+        <v>135</v>
+      </c>
+      <c r="J25" s="41"/>
       <c r="K25" s="14" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="39"/>
       <c r="B26" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D26" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F26" s="42"/>
       <c r="G26" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J26" s="35"/>
+        <v>136</v>
+      </c>
+      <c r="J26" s="41"/>
       <c r="K26" s="14" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="39"/>
       <c r="B27" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F27" s="42"/>
       <c r="G27" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J27" s="35"/>
+        <v>138</v>
+      </c>
+      <c r="J27" s="41"/>
       <c r="K27" s="14" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>182</v>
@@ -2214,182 +2253,182 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="39"/>
       <c r="B28" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F28" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F28" s="42"/>
       <c r="G28" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="L28" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" s="15" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="39"/>
       <c r="B29" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F29" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F29" s="42"/>
       <c r="G29" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>184</v>
+        <v>140</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="39"/>
       <c r="B30" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F30" s="42"/>
       <c r="G30" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
+      </c>
+      <c r="J30" s="41"/>
+      <c r="K30" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="D31" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="38"/>
+        <v>261</v>
+      </c>
+      <c r="F31" s="42"/>
       <c r="G31" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="35"/>
+        <v>142</v>
+      </c>
+      <c r="J31" s="41"/>
       <c r="K31" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="J32" s="35"/>
+        <v>260</v>
+      </c>
+      <c r="J32" s="41"/>
       <c r="K32" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="39"/>
       <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J33" s="35"/>
+        <v>261</v>
+      </c>
+      <c r="J33" s="41"/>
       <c r="K33" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="39"/>
       <c r="B34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D34" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="J34" s="35"/>
+        <v>261</v>
+      </c>
+      <c r="J34" s="41"/>
       <c r="K34" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="39"/>
       <c r="B35" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J35" s="35"/>
+        <v>261</v>
+      </c>
+      <c r="J35" s="41"/>
       <c r="K35" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>178</v>
@@ -2398,17 +2437,17 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="39"/>
       <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J36" s="35"/>
+        <v>261</v>
+      </c>
+      <c r="J36" s="41"/>
       <c r="K36" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>179</v>
@@ -2417,382 +2456,380 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="39"/>
       <c r="B37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J37" s="35"/>
-      <c r="K37" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="L37" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" s="15" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="39"/>
       <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>181</v>
+        <v>260</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="39"/>
       <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J39" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="L39" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J39" s="41"/>
+      <c r="K39" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="39"/>
       <c r="B40" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J40" s="35"/>
+        <v>261</v>
+      </c>
+      <c r="J40" s="41"/>
       <c r="K40" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="39"/>
       <c r="B41" s="28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="J41" s="35"/>
+        <v>261</v>
+      </c>
+      <c r="J41" s="41"/>
       <c r="K41" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="39"/>
       <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J42" s="35"/>
+        <v>261</v>
+      </c>
+      <c r="J42" s="41"/>
       <c r="K42" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="40"/>
       <c r="B43" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="D43" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J43" s="35"/>
+        <v>260</v>
+      </c>
+      <c r="J43" s="41"/>
       <c r="K43" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
+      <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="41"/>
+      <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="J45" s="36"/>
-      <c r="K45" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="41"/>
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="19"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="41"/>
+      <c r="B48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="41"/>
+      <c r="B49" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="41"/>
+      <c r="B50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="35"/>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="41"/>
+      <c r="B51" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="35"/>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="34" t="s">
+      <c r="B52" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="D52" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="41"/>
+      <c r="B53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="41"/>
+      <c r="B54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="37"/>
+      <c r="B55" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
-      <c r="B55" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="B56" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="41"/>
+      <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" s="23"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="41"/>
+      <c r="B58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="41"/>
+      <c r="B59" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G57" s="23"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
-      <c r="B58" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="D59" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="34" t="s">
+      <c r="B60" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="C60" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="37"/>
+      <c r="B61" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="D61" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J29:J37"/>
+    <mergeCell ref="J38:J44"/>
+    <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F3:F14"/>
+    <mergeCell ref="J3:J28"/>
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="A2:A19"/>
@@ -2800,11 +2837,6 @@
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="A56:A59"/>
-    <mergeCell ref="J3:J29"/>
-    <mergeCell ref="J30:J38"/>
-    <mergeCell ref="J39:J45"/>
-    <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F3:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2814,7 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C151572-0A0D-1B47-AF42-C6B04BB5D9B0}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2825,487 +2857,487 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>265</v>
+      <c r="A2" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>265</v>
+      <c r="A3" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>265</v>
+      <c r="A4" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>264</v>
+      <c r="A5" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>264</v>
+      <c r="B7" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>264</v>
+      <c r="A8" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>264</v>
+      <c r="A9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>265</v>
+      <c r="A10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>264</v>
+      <c r="B11" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>264</v>
+      <c r="B12" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>265</v>
+      <c r="A13" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>264</v>
+      <c r="B14" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>265</v>
+      <c r="B15" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>265</v>
+      <c r="A16" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>265</v>
+      <c r="A17" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>265</v>
+      <c r="A18" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>265</v>
+      <c r="A19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>265</v>
+      <c r="A20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>264</v>
+      <c r="A21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>265</v>
+      <c r="A22" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>265</v>
+      <c r="A23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>265</v>
+      <c r="A24" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>265</v>
+      <c r="A25" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>265</v>
+      <c r="A26" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>265</v>
+      <c r="A27" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>265</v>
+      <c r="A28" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>265</v>
+      <c r="A29" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>265</v>
+      <c r="A30" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
+      <c r="B39" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>265</v>
+      <c r="B42" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>265</v>
+      <c r="A43" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
+      <c r="B45" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>265</v>
+      <c r="B46" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>265</v>
+      <c r="A47" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>265</v>
+      <c r="A48" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>265</v>
+      <c r="A49" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>265</v>
+      <c r="A50" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>265</v>
+      <c r="B53" s="35" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>265</v>
+      <c r="A54" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>264</v>
+      <c r="A55" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>264</v>
+      <c r="A56" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>264</v>
+      <c r="A57" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>265</v>
+      <c r="A58" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>265</v>
+      <c r="A59" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>264</v>
+      <c r="A60" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>265</v>
+      <c r="A61" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
